--- a/data/extracted_data/raw_round2/data/Blogoslawski_etal_1978_Table1.xlsx
+++ b/data/extracted_data/raw_round2/data/Blogoslawski_etal_1978_Table1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443FC3E4-7CDC-FE4D-A698-D3821537CA15}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA02192-1B64-EB41-A144-DBA13C96ACAA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>treatment</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,6 +474,9 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/data/extracted_data/raw_round2/data/Blogoslawski_etal_1978_Table1.xlsx
+++ b/data/extracted_data/raw_round2/data/Blogoslawski_etal_1978_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA02192-1B64-EB41-A144-DBA13C96ACAA}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E083EB3E-274C-6B4F-B397-CE8EFA5EE121}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>toxicity</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>note</t>
   </si>
 </sst>
 </file>
